--- a/questions/QCM_Factorio_fr.xlsx
+++ b/questions/QCM_Factorio_fr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>Questions</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Les bâtiments inactifs ne consomment pas d'énergie.</t>
+  </si>
+  <si>
+    <t>Vrai</t>
+  </si>
+  <si>
+    <t>Faux</t>
   </si>
 </sst>
 </file>
@@ -824,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,11 +1183,11 @@
       <c r="B12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20" t="b">
-        <v>0</v>
+      <c r="C12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
@@ -1517,11 +1523,11 @@
       <c r="B24" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="20" t="b">
-        <v>0</v>
+      <c r="C24" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
@@ -1542,11 +1548,11 @@
       <c r="B25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="17" t="b">
-        <v>0</v>
+      <c r="C25" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
@@ -1567,11 +1573,11 @@
       <c r="B26" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20" t="b">
-        <v>0</v>
+      <c r="C26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>

--- a/questions/QCM_Factorio_fr.xlsx
+++ b/questions/QCM_Factorio_fr.xlsx
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,7 +841,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,28 +891,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17">
-        <v>8</v>
-      </c>
-      <c r="G2" s="16">
-        <v>4</v>
-      </c>
-      <c r="H2" s="17">
-        <v>4</v>
-      </c>
-      <c r="I2" s="16">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="23">
+        <v>4</v>
+      </c>
+      <c r="H2" s="24">
+        <v>4</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,28 +920,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="22">
         <v>4</v>
       </c>
       <c r="I3" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -949,19 +949,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="21">
         <v>3</v>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -978,22 +978,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="24">
         <v>4</v>
@@ -1007,22 +1007,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G6" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="22">
         <v>4</v>
@@ -1036,22 +1036,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G7" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="24">
         <v>4</v>
@@ -1065,22 +1065,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="22">
         <v>4</v>
@@ -1094,25 +1094,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="23">
         <v>2</v>
       </c>
       <c r="H9" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="23">
         <v>1</v>
@@ -1123,25 +1119,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>33</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="21">
         <v>1</v>
@@ -1152,98 +1144,102 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>38</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="23">
         <v>2</v>
       </c>
       <c r="H11" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="20">
+        <v>4</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="23">
         <v>2</v>
       </c>
       <c r="H13" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="21">
         <v>3</v>
@@ -1252,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -1260,28 +1256,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>76</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="23">
         <v>1</v>
       </c>
       <c r="H15" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
@@ -1289,28 +1281,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -1318,22 +1306,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G17" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="24">
         <v>4</v>
@@ -1347,22 +1335,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="22">
         <v>4</v>
@@ -1376,22 +1364,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G19" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="24">
         <v>4</v>
@@ -1405,22 +1393,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G20" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="22">
         <v>4</v>
@@ -1434,22 +1422,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G21" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="24">
         <v>4</v>
@@ -1463,22 +1451,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="22">
         <v>4</v>
@@ -1492,22 +1480,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="24">
         <v>4</v>
@@ -1516,82 +1504,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
+        <v>83</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="G25" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="G26" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I26">
+    <sortCondition ref="I2:I26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/questions/QCM_Factorio_fr.xlsx
+++ b/questions/QCM_Factorio_fr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
-    <sheet name="quiz" sheetId="1" r:id="rId1"/>
+    <sheet name="Quiz" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="217">
   <si>
     <t>Questions</t>
   </si>
@@ -186,9 +186,6 @@
     <t>0.88 items/sec</t>
   </si>
   <si>
-    <t>Combien d'items différents peut-on placer sur un seul convoyeur?</t>
-  </si>
-  <si>
     <t>1.09 items/sec</t>
   </si>
   <si>
@@ -309,10 +306,370 @@
     <t>Les bâtiments inactifs ne consomment pas d'énergie.</t>
   </si>
   <si>
-    <t>Vrai</t>
-  </si>
-  <si>
-    <t>Faux</t>
+    <t>Combien d'item(s) différent(s) peut-on placer sur un seul convoyeur?</t>
+  </si>
+  <si>
+    <t>Le nombre de turbine nécessaire pour consommer la vapeur générée par une chaudière est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien de chaudière une pompe côtière peut-elle alimenter? </t>
+  </si>
+  <si>
+    <t>bras robotisé rapide</t>
+  </si>
+  <si>
+    <t>bras robotisé</t>
+  </si>
+  <si>
+    <t>Quel bras est le plus adapté pour garantir l'alimentation en carburant des chaudières indépendament du niveau électrique de la base?</t>
+  </si>
+  <si>
+    <t>bras thermique</t>
+  </si>
+  <si>
+    <t>bras robotisé haute capacité</t>
+  </si>
+  <si>
+    <t>Il faut exactement un panneau solaire pour un accumulateur pour créer un système électrique optimal.</t>
+  </si>
+  <si>
+    <t>Le ratio idéal d'accumulateur par panneau solaire est de :</t>
+  </si>
+  <si>
+    <t>Les réacteurs nucélaires gagnent en rendement lorsqu'ils sont près d'autres réacteurs en marche.</t>
+  </si>
+  <si>
+    <t>Les conduits de chaleurs ne perdent pas de chaleur sur la distance.</t>
+  </si>
+  <si>
+    <t>Le système électrique qui nécessite le moins de performences CPU est :</t>
+  </si>
+  <si>
+    <t>Le nucléaire</t>
+  </si>
+  <si>
+    <t>les chaudières + turbines</t>
+  </si>
+  <si>
+    <t>Les panneaux solaires + accumulateurs</t>
+  </si>
+  <si>
+    <t>Poteaux électriques moyens</t>
+  </si>
+  <si>
+    <t>Grands poteaux électriques</t>
+  </si>
+  <si>
+    <t>Pour couvrir une distance égale, lequel de ceux deux types de poteaux électriques côute le moins de ressources ?</t>
+  </si>
+  <si>
+    <t>Ne fait rien.</t>
+  </si>
+  <si>
+    <t>En faisant un clic gauche sur un poteau électrique avec la touche "Maj" enfoncée on :</t>
+  </si>
+  <si>
+    <t>Retire le câble qui relie le poteau électrique au poteau placé avant lui.</t>
+  </si>
+  <si>
+    <t>Retire tous les câbles du poteau électrique.</t>
+  </si>
+  <si>
+    <t>On connecte de force le poteaux électrique à tous les poteaux à portée de ce dernier.</t>
+  </si>
+  <si>
+    <t>Il est possible de connecter des câbles de logique sur tous les types de poteaux électriques.</t>
+  </si>
+  <si>
+    <t>Il est possible de faire passer un signal logique par un câble électrique.</t>
+  </si>
+  <si>
+    <t>Domaine</t>
+  </si>
+  <si>
+    <t>Le fait de retirer des items toujours du même côté d'un convoyeurs risque de créer un blocage en amont.</t>
+  </si>
+  <si>
+    <t>Il est possible de répartir des items de manière équilibrée sur plusieurs convoyeurs.</t>
+  </si>
+  <si>
+    <t>Utiliser des équilibreur de convoyeurs sur le net, garanti l'équilibrage des items entre les convoyeurs ainsi que sur chacune des voies des convoyeurs.</t>
+  </si>
+  <si>
+    <t>Il est nécessaire de placer les pompes les unes après les autres pour maintenir un débit maximal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser des tuyaux sousterrains réduit la perte de débit par rapport aux tuyeaux standards sur la longueur. </t>
+  </si>
+  <si>
+    <t>Le moyen le plus économique pour maintenir un débit de flux maximal est :</t>
+  </si>
+  <si>
+    <t>Enchaîner les pompes</t>
+  </si>
+  <si>
+    <t>Placer plusieurs citernes à la suite</t>
+  </si>
+  <si>
+    <t>Espacer les pompes avec 2 tuyaux.</t>
+  </si>
+  <si>
+    <t>Placer plusieurs citernes à la suite ne cause pas de perte de débit.</t>
+  </si>
+  <si>
+    <t>Lorsque un liquide indésirable se retrouve dans un système de tuyaux, je :</t>
+  </si>
+  <si>
+    <t>Me tire une balle</t>
+  </si>
+  <si>
+    <t>Remplace les tuyaux sur lesquels je vois l'icônes du liquide indésirables</t>
+  </si>
+  <si>
+    <t>Remplace tous les tuyaux connectés au système contaminé</t>
+  </si>
+  <si>
+    <t>Laisse le système, les liquides indésirables s'éliminent automatiquement</t>
+  </si>
+  <si>
+    <t>Combien de pompes peut-on connecter à un wagon-citerne?</t>
+  </si>
+  <si>
+    <t>Transporter des items avec des robots nécessite moins de CPU qu'avec les convoyeurs.</t>
+  </si>
+  <si>
+    <t>Quel coffre sera vidé en priorité lorsqu'un joueur fait une demande logistique?</t>
+  </si>
+  <si>
+    <t>Le coffre jaune</t>
+  </si>
+  <si>
+    <t>Le coffre violet</t>
+  </si>
+  <si>
+    <t>Le coffre bleu</t>
+  </si>
+  <si>
+    <t>Le coffre vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le coffre bleu </t>
+  </si>
+  <si>
+    <t>Quel coffre sera vidé en priorité lorsqu'un coffre fait une demande logistique?</t>
+  </si>
+  <si>
+    <t>le coffre rouge</t>
+  </si>
+  <si>
+    <t>Lorsque je demande des items dans l'approvisionnement logistique mais que j'ai les mêmes items dans la corbeille logistique et en plus grande quantité, je crée une boucle d'approvisionnement infinie.</t>
+  </si>
+  <si>
+    <t>Les robots remplissent les coffres de demande logistique de manière proportionnelle.</t>
+  </si>
+  <si>
+    <t>Lorsque les robots doivent chercher des items depuis des coffre logistiques, il prennent :</t>
+  </si>
+  <si>
+    <t>Depuis tous les coffre de manière équilibrée.</t>
+  </si>
+  <si>
+    <t>Depuis les coffres les plus remplis d'abords, puis de manière équilibrée.</t>
+  </si>
+  <si>
+    <t>Toujours depuis les coffres les plus proches.</t>
+  </si>
+  <si>
+    <t>Toujours depuis les coffres les plus éloignés.</t>
+  </si>
+  <si>
+    <t>Les robots ne s'engagent pour une requête seulement si elle est faisable avec une charge complète.</t>
+  </si>
+  <si>
+    <t>Lorsqu'un robot doit faire un grand trajet il va:</t>
+  </si>
+  <si>
+    <t>Suivre les roboports pour pouvoir se recharger en cas de besoin.</t>
+  </si>
+  <si>
+    <t>Attendre qu'un autre robot, plus proche, prenne en charge la requête.</t>
+  </si>
+  <si>
+    <t>Aller tout droit en direction de la requête logistique même si aucun roboport n'est sur le chemin.</t>
+  </si>
+  <si>
+    <t>Emettre une alerte sur l'écran comme quoi il est trop loin.</t>
+  </si>
+  <si>
+    <t>Les robots ont une vitesse initiale fixe.</t>
+  </si>
+  <si>
+    <t>La capacité de transport maximale des robots et de:</t>
+  </si>
+  <si>
+    <t>Trouver l'intru: Les coffres jaunes sont remplis par:</t>
+  </si>
+  <si>
+    <t>Les coffre rouges</t>
+  </si>
+  <si>
+    <t>Les coffre violets</t>
+  </si>
+  <si>
+    <t>Les objets sur un joueur placé dans la corbeille logistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les objets soumis à la suppression par le plan de déconstruction. </t>
+  </si>
+  <si>
+    <t>Quel est le bras le moins rapide?</t>
+  </si>
+  <si>
+    <t>En ajoutant des locomotive à un train, on augmente son accélération.</t>
+  </si>
+  <si>
+    <t>Un train peut rouler dans les deux sens.</t>
+  </si>
+  <si>
+    <t>En ajoutant des locomotive à un train, on augmente sa vitesse maximale.</t>
+  </si>
+  <si>
+    <t>Chargé oun on, les trains accélèrent toujours de la même manière.</t>
+  </si>
+  <si>
+    <t>La capacité de transport maximale des wagons est de:</t>
+  </si>
+  <si>
+    <t>20 stacks</t>
+  </si>
+  <si>
+    <t>40 stacks</t>
+  </si>
+  <si>
+    <t>48 stacks</t>
+  </si>
+  <si>
+    <t>64 stacks</t>
+  </si>
+  <si>
+    <t>La capacité de transport maximale des wagons citerne est de:</t>
+  </si>
+  <si>
+    <t>75'000 unités</t>
+  </si>
+  <si>
+    <t>100'000 unités</t>
+  </si>
+  <si>
+    <t>125'000 unités</t>
+  </si>
+  <si>
+    <t>25'000 unités</t>
+  </si>
+  <si>
+    <t>Lorsqu'on relie de nombreux roboports sur une surface immense:</t>
+  </si>
+  <si>
+    <t>On compléxifie la gestion logistique pour le CPU et on tue le game.</t>
+  </si>
+  <si>
+    <t>On simplifie la gestion logistique pour le CPU et gagne en FPS.</t>
+  </si>
+  <si>
+    <t>Rien ne change par rapport à une segmentation des réseaux logistique.</t>
+  </si>
+  <si>
+    <t>Lorsqu'il y a de nombreux robots logistique qui travaillent sur un réseaux, il faut placer de nombreux roboports pour le rechargement</t>
+  </si>
+  <si>
+    <t>Quel modules faut-il placer sur les forseuses pour augmenter le débit au maximum?</t>
+  </si>
+  <si>
+    <t>Modules d'efficacité</t>
+  </si>
+  <si>
+    <t>Modules de productivité</t>
+  </si>
+  <si>
+    <t>Modules de vitesse</t>
+  </si>
+  <si>
+    <t>Quel modules faut-il placer sur les forseuses pour augmenter la durée de vie au maximum?</t>
+  </si>
+  <si>
+    <t>Quel modules faut-il placer dans le silo à roquette de manière à économiser 40% des ressources utilisées pour lancer des fusées?</t>
+  </si>
+  <si>
+    <t>Est-ce que lancer un poisson dans l'espace a du sens?</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>Lorsqu'une fusée est envoyée dans l'espace, je récupère:</t>
+  </si>
+  <si>
+    <t>500 potions blanches</t>
+  </si>
+  <si>
+    <t>10'000 potions blanches</t>
+  </si>
+  <si>
+    <t>1'000 potions blanches</t>
+  </si>
+  <si>
+    <t>5'000 potions blanches</t>
+  </si>
+  <si>
+    <t>Je peux continuer de faire des recherche à l'infini.</t>
+  </si>
+  <si>
+    <t>lorsqu'une recherche indique une quantité égale en potion qu'un autre recherche, les deux recherches prennent systématiquement le même temps pour se faire.</t>
+  </si>
+  <si>
+    <t>Plus j'ai de labo fourni en potions de recherche, plus les technologie se recherchent rapidement.</t>
+  </si>
+  <si>
+    <t>Raccourcis</t>
+  </si>
+  <si>
+    <t>Convoyeur</t>
+  </si>
+  <si>
+    <t>Plomberie</t>
+  </si>
+  <si>
+    <t>Bras robotisés</t>
+  </si>
+  <si>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>Bon sens</t>
+  </si>
+  <si>
+    <t>Logistique</t>
+  </si>
+  <si>
+    <t>Trains</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Logique</t>
+  </si>
+  <si>
+    <t>bras robotisé long</t>
+  </si>
+  <si>
+    <t>Espacer les pompes avec un tuyau.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -426,16 +783,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -449,52 +818,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -838,762 +1227,2321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="71" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="4"/>
+    <col min="10" max="10" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="J1" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="23">
-        <v>4</v>
-      </c>
-      <c r="H2" s="24">
-        <v>4</v>
-      </c>
-      <c r="I2" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="G2" s="27">
+        <v>4</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4</v>
+      </c>
+      <c r="I2" s="27">
+        <v>1</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22">
-        <v>4</v>
-      </c>
-      <c r="I3" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="G3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25">
+        <v>4</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21">
-        <v>3</v>
-      </c>
-      <c r="H4" s="22">
-        <v>4</v>
-      </c>
-      <c r="I4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="23">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
-        <v>4</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>4</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="21">
-        <v>2</v>
-      </c>
-      <c r="H6" s="22">
-        <v>4</v>
-      </c>
-      <c r="I6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="G6" s="24">
+        <v>2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>4</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="23">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>4</v>
-      </c>
-      <c r="I7" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28">
+        <v>4</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="21">
-        <v>2</v>
-      </c>
-      <c r="H8" s="22">
-        <v>4</v>
-      </c>
-      <c r="I8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="G8" s="24">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>4</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="28">
+        <v>2</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="27">
+        <v>2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>2</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>4</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28">
+        <v>2</v>
+      </c>
+      <c r="I15" s="27">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
+        <v>2</v>
+      </c>
+      <c r="I16" s="24">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="27">
+        <v>2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="27">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25">
+        <v>2</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="20">
+        <v>8</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="20">
+        <v>4</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="24">
+        <v>2</v>
+      </c>
+      <c r="H20" s="25">
+        <v>4</v>
+      </c>
+      <c r="I20" s="24">
+        <v>2</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28">
+        <v>4</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>2</v>
+      </c>
+      <c r="I22" s="24">
+        <v>2</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="27">
+        <v>2</v>
+      </c>
+      <c r="H23" s="28">
+        <v>2</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+      <c r="D24" s="23">
+        <v>2</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="23">
+        <v>4</v>
+      </c>
+      <c r="G24" s="24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="25">
+        <v>4</v>
+      </c>
+      <c r="I24" s="24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="23">
-        <v>2</v>
-      </c>
-      <c r="H9" s="24">
-        <v>2</v>
-      </c>
-      <c r="I9" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21">
-        <v>2</v>
-      </c>
-      <c r="H10" s="22">
-        <v>2</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="C25" s="19">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20">
+        <v>16</v>
+      </c>
+      <c r="E25" s="19">
+        <v>20</v>
+      </c>
+      <c r="F25" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="23">
-        <v>2</v>
-      </c>
-      <c r="H11" s="24">
-        <v>2</v>
-      </c>
-      <c r="I11" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="G25" s="27">
+        <v>3</v>
+      </c>
+      <c r="H25" s="28">
+        <v>4</v>
+      </c>
+      <c r="I25" s="27">
+        <v>2</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24">
+        <v>2</v>
+      </c>
+      <c r="H26" s="25">
+        <v>2</v>
+      </c>
+      <c r="I26" s="24">
+        <v>2</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="28">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24">
+        <v>2</v>
+      </c>
+      <c r="H28" s="25">
+        <v>2</v>
+      </c>
+      <c r="I28" s="24">
+        <v>2</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="27">
+        <v>3</v>
+      </c>
+      <c r="H29" s="28">
+        <v>4</v>
+      </c>
+      <c r="I29" s="27">
+        <v>2</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24">
+        <v>1</v>
+      </c>
+      <c r="H30" s="25">
+        <v>2</v>
+      </c>
+      <c r="I30" s="24">
+        <v>2</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="27">
+        <v>2</v>
+      </c>
+      <c r="H31" s="28">
+        <v>2</v>
+      </c>
+      <c r="I31" s="27">
+        <v>2</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24">
+        <v>1</v>
+      </c>
+      <c r="H32" s="25">
+        <v>2</v>
+      </c>
+      <c r="I32" s="24">
+        <v>2</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="27">
+        <v>1</v>
+      </c>
+      <c r="H33" s="28">
+        <v>2</v>
+      </c>
+      <c r="I33" s="27">
+        <v>2</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24">
+        <v>1</v>
+      </c>
+      <c r="H34" s="25">
+        <v>2</v>
+      </c>
+      <c r="I34" s="24">
+        <v>2</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="27">
+        <v>1</v>
+      </c>
+      <c r="H35" s="28">
+        <v>2</v>
+      </c>
+      <c r="I35" s="27">
+        <v>2</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
+      <c r="H36" s="25">
+        <v>2</v>
+      </c>
+      <c r="I36" s="24">
+        <v>2</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="27">
+        <v>2</v>
+      </c>
+      <c r="H37" s="28">
+        <v>2</v>
+      </c>
+      <c r="I37" s="27">
+        <v>2</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="22">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23">
+        <v>2</v>
+      </c>
+      <c r="E38" s="22">
+        <v>4</v>
+      </c>
+      <c r="F38" s="23">
+        <v>6</v>
+      </c>
+      <c r="G38" s="24">
+        <v>3</v>
+      </c>
+      <c r="H38" s="25">
+        <v>4</v>
+      </c>
+      <c r="I38" s="24">
+        <v>2</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="27">
+        <v>2</v>
+      </c>
+      <c r="H39" s="28">
+        <v>2</v>
+      </c>
+      <c r="I39" s="27">
+        <v>2</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="24">
+        <v>2</v>
+      </c>
+      <c r="H40" s="25">
+        <v>4</v>
+      </c>
+      <c r="I40" s="24">
+        <v>2</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
+        <v>4</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24">
+        <v>1</v>
+      </c>
+      <c r="H42" s="25">
+        <v>2</v>
+      </c>
+      <c r="I42" s="24">
+        <v>2</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24">
+        <v>1</v>
+      </c>
+      <c r="H43" s="25">
+        <v>2</v>
+      </c>
+      <c r="I43" s="24">
+        <v>2</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="24">
+        <v>2</v>
+      </c>
+      <c r="H44" s="25">
+        <v>4</v>
+      </c>
+      <c r="I44" s="24">
+        <v>2</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24">
+        <v>2</v>
+      </c>
+      <c r="H45" s="25">
+        <v>2</v>
+      </c>
+      <c r="I45" s="24">
+        <v>2</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="25">
+        <v>2</v>
+      </c>
+      <c r="I46" s="24">
+        <v>2</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="24">
+        <v>3</v>
+      </c>
+      <c r="H47" s="25">
+        <v>4</v>
+      </c>
+      <c r="I47" s="24">
+        <v>3</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="24">
+        <v>1</v>
+      </c>
+      <c r="H48" s="25">
+        <v>4</v>
+      </c>
+      <c r="I48" s="24">
+        <v>3</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="19">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4</v>
-      </c>
-      <c r="F12" s="20">
-        <v>8</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4</v>
-      </c>
-      <c r="H12" s="20">
-        <v>4</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="23">
-        <v>2</v>
-      </c>
-      <c r="H13" s="24">
-        <v>4</v>
-      </c>
-      <c r="I13" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="21">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4</v>
-      </c>
-      <c r="I14" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="23">
-        <v>1</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2</v>
-      </c>
-      <c r="I15" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21">
-        <v>2</v>
-      </c>
-      <c r="H16" s="22">
-        <v>2</v>
-      </c>
-      <c r="I16" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="D49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="24">
+        <v>4</v>
+      </c>
+      <c r="H49" s="25">
+        <v>4</v>
+      </c>
+      <c r="I49" s="24">
+        <v>3</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="23">
-        <v>3</v>
-      </c>
-      <c r="H17" s="24">
-        <v>4</v>
-      </c>
-      <c r="I17" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="B50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="24">
+        <v>1</v>
+      </c>
+      <c r="H50" s="25">
+        <v>4</v>
+      </c>
+      <c r="I50" s="24">
+        <v>3</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="B51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="24">
+        <v>2</v>
+      </c>
+      <c r="H51" s="25">
+        <v>4</v>
+      </c>
+      <c r="I51" s="24">
+        <v>3</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="24">
+        <v>3</v>
+      </c>
+      <c r="H52" s="25">
+        <v>4</v>
+      </c>
+      <c r="I52" s="24">
+        <v>3</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="24">
+        <v>2</v>
+      </c>
+      <c r="H53" s="25">
+        <v>4</v>
+      </c>
+      <c r="I53" s="24">
+        <v>3</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22">
-        <v>4</v>
-      </c>
-      <c r="I18" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="D54" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="24">
+        <v>4</v>
+      </c>
+      <c r="H54" s="25">
+        <v>4</v>
+      </c>
+      <c r="I54" s="24">
+        <v>3</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="24">
+        <v>1</v>
+      </c>
+      <c r="H55" s="25">
+        <v>4</v>
+      </c>
+      <c r="I55" s="24">
+        <v>3</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="24">
+        <v>3</v>
+      </c>
+      <c r="H56" s="25">
+        <v>4</v>
+      </c>
+      <c r="I56" s="24">
+        <v>3</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="23">
-        <v>4</v>
-      </c>
-      <c r="H19" s="24">
-        <v>4</v>
-      </c>
-      <c r="I19" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="B57" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="24">
+        <v>3</v>
+      </c>
+      <c r="H57" s="25">
+        <v>4</v>
+      </c>
+      <c r="I57" s="24">
+        <v>3</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="B58" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="22">
+        <v>0.84</v>
+      </c>
+      <c r="D58" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0.92</v>
+      </c>
+      <c r="F58" s="23">
+        <v>1</v>
+      </c>
+      <c r="G58" s="24">
+        <v>1</v>
+      </c>
+      <c r="H58" s="25">
+        <v>4</v>
+      </c>
+      <c r="I58" s="24">
+        <v>3</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="B59" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24">
+        <v>3</v>
+      </c>
+      <c r="H59" s="25">
+        <v>3</v>
+      </c>
+      <c r="I59" s="24">
+        <v>3</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24">
+        <v>2</v>
+      </c>
+      <c r="H60" s="25">
+        <v>2</v>
+      </c>
+      <c r="I60" s="24">
+        <v>3</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24">
+        <v>2</v>
+      </c>
+      <c r="H61" s="25">
+        <v>2</v>
+      </c>
+      <c r="I61" s="24">
+        <v>3</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="24">
+        <v>1</v>
+      </c>
+      <c r="H62" s="25">
+        <v>4</v>
+      </c>
+      <c r="I62" s="24">
+        <v>3</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24">
+        <v>2</v>
+      </c>
+      <c r="H63" s="25">
+        <v>2</v>
+      </c>
+      <c r="I63" s="24">
+        <v>3</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="24">
+        <v>3</v>
+      </c>
+      <c r="H64" s="25">
+        <v>4</v>
+      </c>
+      <c r="I64" s="24">
+        <v>3</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="24">
+        <v>2</v>
+      </c>
+      <c r="H65" s="25">
+        <v>4</v>
+      </c>
+      <c r="I65" s="24">
+        <v>3</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24">
+        <v>2</v>
+      </c>
+      <c r="H66" s="25">
+        <v>2</v>
+      </c>
+      <c r="I66" s="24">
+        <v>3</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="24">
+        <v>1</v>
+      </c>
+      <c r="H67" s="25">
+        <v>4</v>
+      </c>
+      <c r="I67" s="24">
+        <v>3</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="24">
+        <v>3</v>
+      </c>
+      <c r="H68" s="25">
+        <v>4</v>
+      </c>
+      <c r="I68" s="24">
+        <v>3</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="24">
+        <v>3</v>
+      </c>
+      <c r="H69" s="25">
+        <v>4</v>
+      </c>
+      <c r="I69" s="24">
+        <v>3</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="24">
+        <v>1</v>
+      </c>
+      <c r="H70" s="25">
+        <v>4</v>
+      </c>
+      <c r="I70" s="24">
+        <v>3</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24">
+        <v>2</v>
+      </c>
+      <c r="H71" s="25">
+        <v>3</v>
+      </c>
+      <c r="I71" s="24">
+        <v>3</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="24">
+        <v>3</v>
+      </c>
+      <c r="H72" s="25">
+        <v>3</v>
+      </c>
+      <c r="I72" s="24">
+        <v>3</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24">
+        <v>2</v>
+      </c>
+      <c r="H73" s="25">
+        <v>3</v>
+      </c>
+      <c r="I73" s="24">
+        <v>3</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24">
+        <v>2</v>
+      </c>
+      <c r="H74" s="25">
+        <v>3</v>
+      </c>
+      <c r="I74" s="24">
+        <v>3</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22">
-        <v>4</v>
-      </c>
-      <c r="I20" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="B75" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="22">
+        <v>1</v>
+      </c>
+      <c r="D75" s="23">
+        <v>2</v>
+      </c>
+      <c r="E75" s="22">
+        <v>3</v>
+      </c>
+      <c r="F75" s="23">
+        <v>4</v>
+      </c>
+      <c r="G75" s="24">
+        <v>3</v>
+      </c>
+      <c r="H75" s="25">
+        <v>4</v>
+      </c>
+      <c r="I75" s="24">
+        <v>3</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="G21" s="23">
-        <v>2</v>
-      </c>
-      <c r="H21" s="24">
-        <v>4</v>
-      </c>
-      <c r="I21" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="21">
-        <v>3</v>
-      </c>
-      <c r="H22" s="22">
-        <v>4</v>
-      </c>
-      <c r="I22" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="23">
-        <v>2</v>
-      </c>
-      <c r="H23" s="24">
-        <v>4</v>
-      </c>
-      <c r="I23" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="21">
-        <v>4</v>
-      </c>
-      <c r="H24" s="22">
-        <v>4</v>
-      </c>
-      <c r="I24" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1</v>
-      </c>
-      <c r="H25" s="24">
-        <v>4</v>
-      </c>
-      <c r="I25" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="21">
-        <v>3</v>
-      </c>
-      <c r="H26" s="22">
-        <v>4</v>
-      </c>
-      <c r="I26" s="21">
-        <v>3</v>
+      <c r="B76" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24">
+        <v>1</v>
+      </c>
+      <c r="H76" s="25">
+        <v>2</v>
+      </c>
+      <c r="I76" s="24">
+        <v>3</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I26">
-    <sortCondition ref="I2:I26"/>
+  <sortState ref="A2:J160">
+    <sortCondition ref="I2:I160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
